--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.073236105266689</v>
+        <v>9.355195333333333</v>
       </c>
       <c r="H2">
-        <v>8.073236105266689</v>
+        <v>28.065586</v>
       </c>
       <c r="I2">
-        <v>0.4154041124348532</v>
+        <v>0.4481020953400846</v>
       </c>
       <c r="J2">
-        <v>0.4154041124348532</v>
+        <v>0.4481020953400845</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N2">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q2">
-        <v>87.48045862970069</v>
+        <v>125.745697022878</v>
       </c>
       <c r="R2">
-        <v>87.48045862970069</v>
+        <v>1131.711273205902</v>
       </c>
       <c r="S2">
-        <v>0.0327399354767326</v>
+        <v>0.04020856905671616</v>
       </c>
       <c r="T2">
-        <v>0.0327399354767326</v>
+        <v>0.04020856905671616</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.073236105266689</v>
+        <v>9.355195333333333</v>
       </c>
       <c r="H3">
-        <v>8.073236105266689</v>
+        <v>28.065586</v>
       </c>
       <c r="I3">
-        <v>0.4154041124348532</v>
+        <v>0.4481020953400846</v>
       </c>
       <c r="J3">
-        <v>0.4154041124348532</v>
+        <v>0.4481020953400845</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N3">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q3">
-        <v>440.3917612904348</v>
+        <v>511.8370969115033</v>
       </c>
       <c r="R3">
-        <v>440.3917612904348</v>
+        <v>4606.533872203529</v>
       </c>
       <c r="S3">
-        <v>0.1648184986108228</v>
+        <v>0.163665538815304</v>
       </c>
       <c r="T3">
-        <v>0.1648184986108228</v>
+        <v>0.163665538815304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.073236105266689</v>
+        <v>9.355195333333333</v>
       </c>
       <c r="H4">
-        <v>8.073236105266689</v>
+        <v>28.065586</v>
       </c>
       <c r="I4">
-        <v>0.4154041124348532</v>
+        <v>0.4481020953400846</v>
       </c>
       <c r="J4">
-        <v>0.4154041124348532</v>
+        <v>0.4481020953400845</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N4">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q4">
-        <v>449.4291589665499</v>
+        <v>595.7118023121533</v>
       </c>
       <c r="R4">
-        <v>449.4291589665499</v>
+        <v>5361.40622080938</v>
       </c>
       <c r="S4">
-        <v>0.168200783311067</v>
+        <v>0.1904853979759732</v>
       </c>
       <c r="T4">
-        <v>0.168200783311067</v>
+        <v>0.1904853979759732</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.073236105266689</v>
+        <v>9.355195333333333</v>
       </c>
       <c r="H5">
-        <v>8.073236105266689</v>
+        <v>28.065586</v>
       </c>
       <c r="I5">
-        <v>0.4154041124348532</v>
+        <v>0.4481020953400846</v>
       </c>
       <c r="J5">
-        <v>0.4154041124348532</v>
+        <v>0.4481020953400845</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N5">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q5">
-        <v>132.6501754861199</v>
+        <v>168.0711234952196</v>
       </c>
       <c r="R5">
-        <v>132.6501754861199</v>
+        <v>1512.640111456976</v>
       </c>
       <c r="S5">
-        <v>0.04964489503623083</v>
+        <v>0.05374258949209119</v>
       </c>
       <c r="T5">
-        <v>0.04964489503623083</v>
+        <v>0.05374258949209119</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.3110041044262</v>
+        <v>10.423773</v>
       </c>
       <c r="H6">
-        <v>10.3110041044262</v>
+        <v>31.271319</v>
       </c>
       <c r="I6">
-        <v>0.5305472864242217</v>
+        <v>0.4992856221832745</v>
       </c>
       <c r="J6">
-        <v>0.5305472864242217</v>
+        <v>0.4992856221832744</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N6">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q6">
-        <v>111.7286000590879</v>
+        <v>140.108736887937</v>
       </c>
       <c r="R6">
-        <v>111.7286000590879</v>
+        <v>1260.978631991433</v>
       </c>
       <c r="S6">
-        <v>0.04181490602746187</v>
+        <v>0.044801308959168</v>
       </c>
       <c r="T6">
-        <v>0.04181490602746187</v>
+        <v>0.04480130895916801</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.3110041044262</v>
+        <v>10.423773</v>
       </c>
       <c r="H7">
-        <v>10.3110041044262</v>
+        <v>31.271319</v>
       </c>
       <c r="I7">
-        <v>0.5305472864242217</v>
+        <v>0.4992856221832745</v>
       </c>
       <c r="J7">
-        <v>0.5305472864242217</v>
+        <v>0.4992856221832744</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N7">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q7">
-        <v>562.4610997390313</v>
+        <v>570.3006213215549</v>
       </c>
       <c r="R7">
-        <v>562.4610997390313</v>
+        <v>5132.705591893994</v>
       </c>
       <c r="S7">
-        <v>0.2105034701701467</v>
+        <v>0.1823598934866442</v>
       </c>
       <c r="T7">
-        <v>0.2105034701701467</v>
+        <v>0.1823598934866443</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.3110041044262</v>
+        <v>10.423773</v>
       </c>
       <c r="H8">
-        <v>10.3110041044262</v>
+        <v>31.271319</v>
       </c>
       <c r="I8">
-        <v>0.5305472864242217</v>
+        <v>0.4992856221832745</v>
       </c>
       <c r="J8">
-        <v>0.5305472864242217</v>
+        <v>0.4992856221832744</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N8">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q8">
-        <v>574.0035151120891</v>
+        <v>663.75573993603</v>
       </c>
       <c r="R8">
-        <v>574.0035151120891</v>
+        <v>5973.80165942427</v>
       </c>
       <c r="S8">
-        <v>0.2148232684482876</v>
+        <v>0.2122431950983888</v>
       </c>
       <c r="T8">
-        <v>0.2148232684482876</v>
+        <v>0.2122431950983888</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.3110041044262</v>
+        <v>10.423773</v>
       </c>
       <c r="H9">
-        <v>10.3110041044262</v>
+        <v>31.271319</v>
       </c>
       <c r="I9">
-        <v>0.5305472864242217</v>
+        <v>0.4992856221832745</v>
       </c>
       <c r="J9">
-        <v>0.5305472864242217</v>
+        <v>0.4992856221832744</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N9">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q9">
-        <v>169.4186180183636</v>
+        <v>187.268696884056</v>
       </c>
       <c r="R9">
-        <v>169.4186180183636</v>
+        <v>1685.418271956504</v>
       </c>
       <c r="S9">
-        <v>0.06340564177832556</v>
+        <v>0.05988122463907333</v>
       </c>
       <c r="T9">
-        <v>0.06340564177832556</v>
+        <v>0.05988122463907333</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.05041598074816</v>
+        <v>0.009880666666666668</v>
       </c>
       <c r="H10">
-        <v>1.05041598074816</v>
+        <v>0.029642</v>
       </c>
       <c r="I10">
-        <v>0.05404860114092513</v>
+        <v>0.0004732715115968286</v>
       </c>
       <c r="J10">
-        <v>0.05404860114092513</v>
+        <v>0.0004732715115968285</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N10">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q10">
-        <v>11.38216082741214</v>
+        <v>0.132808698566</v>
       </c>
       <c r="R10">
-        <v>11.38216082741214</v>
+        <v>1.195278287094</v>
       </c>
       <c r="S10">
-        <v>0.004259822329609361</v>
+        <v>4.246704144995158E-05</v>
       </c>
       <c r="T10">
-        <v>0.004259822329609361</v>
+        <v>4.246704144995157E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.05041598074816</v>
+        <v>0.009880666666666668</v>
       </c>
       <c r="H11">
-        <v>1.05041598074816</v>
+        <v>0.029642</v>
       </c>
       <c r="I11">
-        <v>0.05404860114092513</v>
+        <v>0.0004732715115968286</v>
       </c>
       <c r="J11">
-        <v>0.05404860114092513</v>
+        <v>0.0004732715115968285</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N11">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q11">
-        <v>57.29976651463488</v>
+        <v>0.5405864401566667</v>
       </c>
       <c r="R11">
-        <v>57.29976651463488</v>
+        <v>4.86527796141</v>
       </c>
       <c r="S11">
-        <v>0.02144468248002609</v>
+        <v>0.0001728584573848999</v>
       </c>
       <c r="T11">
-        <v>0.02144468248002609</v>
+        <v>0.0001728584573848999</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.05041598074816</v>
+        <v>0.009880666666666668</v>
       </c>
       <c r="H12">
-        <v>1.05041598074816</v>
+        <v>0.029642</v>
       </c>
       <c r="I12">
-        <v>0.05404860114092513</v>
+        <v>0.0004732715115968286</v>
       </c>
       <c r="J12">
-        <v>0.05404860114092513</v>
+        <v>0.0004732715115968285</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N12">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q12">
-        <v>58.47563042095303</v>
+        <v>0.6291722982066668</v>
       </c>
       <c r="R12">
-        <v>58.47563042095303</v>
+        <v>5.66255068386</v>
       </c>
       <c r="S12">
-        <v>0.021884754571843</v>
+        <v>0.0002011847593990661</v>
       </c>
       <c r="T12">
-        <v>0.021884754571843</v>
+        <v>0.0002011847593990661</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.009880666666666668</v>
+      </c>
+      <c r="H13">
+        <v>0.029642</v>
+      </c>
+      <c r="I13">
+        <v>0.0004732715115968286</v>
+      </c>
+      <c r="J13">
+        <v>0.0004732715115968285</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.96553866666667</v>
+      </c>
+      <c r="N13">
+        <v>53.896616</v>
+      </c>
+      <c r="O13">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="P13">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="Q13">
+        <v>0.1775114990524445</v>
+      </c>
+      <c r="R13">
+        <v>1.597603491472</v>
+      </c>
+      <c r="S13">
+        <v>5.676125336291097E-05</v>
+      </c>
+      <c r="T13">
+        <v>5.676125336291097E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.088525666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.265577</v>
+      </c>
+      <c r="I14">
+        <v>0.05213901096504407</v>
+      </c>
+      <c r="J14">
+        <v>0.05213901096504406</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.441269</v>
+      </c>
+      <c r="N14">
+        <v>40.323807</v>
+      </c>
+      <c r="O14">
+        <v>0.08973082133481231</v>
+      </c>
+      <c r="P14">
+        <v>0.08973082133481232</v>
+      </c>
+      <c r="Q14">
+        <v>14.631166299071</v>
+      </c>
+      <c r="R14">
+        <v>131.680496691639</v>
+      </c>
+      <c r="S14">
+        <v>0.00467847627747819</v>
+      </c>
+      <c r="T14">
+        <v>0.004678476277478189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.088525666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.265577</v>
+      </c>
+      <c r="I15">
+        <v>0.05213901096504407</v>
+      </c>
+      <c r="J15">
+        <v>0.05213901096504406</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>54.711535</v>
+      </c>
+      <c r="N15">
+        <v>164.134605</v>
+      </c>
+      <c r="O15">
+        <v>0.3652416280068742</v>
+      </c>
+      <c r="P15">
+        <v>0.3652416280068742</v>
+      </c>
+      <c r="Q15">
+        <v>59.55491011023165</v>
+      </c>
+      <c r="R15">
+        <v>535.9941909920849</v>
+      </c>
+      <c r="S15">
+        <v>0.01904333724754096</v>
+      </c>
+      <c r="T15">
+        <v>0.01904333724754096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.05041598074816</v>
-      </c>
-      <c r="H13">
-        <v>1.05041598074816</v>
-      </c>
-      <c r="I13">
-        <v>0.05404860114092513</v>
-      </c>
-      <c r="J13">
-        <v>0.05404860114092513</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>16.4308554533149</v>
-      </c>
-      <c r="N13">
-        <v>16.4308554533149</v>
-      </c>
-      <c r="O13">
-        <v>0.1195098785740031</v>
-      </c>
-      <c r="P13">
-        <v>0.1195098785740031</v>
-      </c>
-      <c r="Q13">
-        <v>17.25923314552502</v>
-      </c>
-      <c r="R13">
-        <v>17.25923314552502</v>
-      </c>
-      <c r="S13">
-        <v>0.006459341759446686</v>
-      </c>
-      <c r="T13">
-        <v>0.006459341759446686</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.088525666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.265577</v>
+      </c>
+      <c r="I16">
+        <v>0.05213901096504407</v>
+      </c>
+      <c r="J16">
+        <v>0.05213901096504406</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>63.67711</v>
+      </c>
+      <c r="N16">
+        <v>191.03133</v>
+      </c>
+      <c r="O16">
+        <v>0.4250937452800914</v>
+      </c>
+      <c r="P16">
+        <v>0.4250937452800915</v>
+      </c>
+      <c r="Q16">
+        <v>69.31416861415666</v>
+      </c>
+      <c r="R16">
+        <v>623.8275175274099</v>
+      </c>
+      <c r="S16">
+        <v>0.02216396744633034</v>
+      </c>
+      <c r="T16">
+        <v>0.02216396744633033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.088525666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.265577</v>
+      </c>
+      <c r="I17">
+        <v>0.05213901096504407</v>
+      </c>
+      <c r="J17">
+        <v>0.05213901096504406</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.96553866666667</v>
+      </c>
+      <c r="N17">
+        <v>53.896616</v>
+      </c>
+      <c r="O17">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="P17">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="Q17">
+        <v>19.55594995415911</v>
+      </c>
+      <c r="R17">
+        <v>176.003549587432</v>
+      </c>
+      <c r="S17">
+        <v>0.006253229993694579</v>
+      </c>
+      <c r="T17">
+        <v>0.006253229993694578</v>
       </c>
     </row>
   </sheetData>
